--- a/Final_data_temp_version.xlsx
+++ b/Final_data_temp_version.xlsx
@@ -8,21 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="mysql" sheetId="1" r:id="rId1"/>
+    <sheet name="Mongo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>1_1</t>
-  </si>
-  <si>
-    <t>1_2</t>
-  </si>
-  <si>
-    <t>1_3</t>
   </si>
   <si>
     <t>2_1</t>
@@ -41,9 +36,6 @@
   </si>
   <si>
     <t>3_2</t>
-  </si>
-  <si>
-    <t>3_3</t>
   </si>
   <si>
     <t>4_1</t>
@@ -104,6 +96,92 @@
   </si>
   <si>
     <t>7_2</t>
+  </si>
+  <si>
+    <t>5_12</t>
+  </si>
+  <si>
+    <t>5_13</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>M17</t>
+  </si>
+  <si>
+    <t>M18</t>
+  </si>
+  <si>
+    <t>M19</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -486,2864 +564,5175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF31"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32">
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2">
         <v>29.199868899999998</v>
       </c>
       <c r="B2">
+        <v>22.2036962</v>
+      </c>
+      <c r="C2">
         <v>32.828821099999999</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>38.562892699999999</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>23.486208000000001</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>23.2146577</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>31.6637238</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>30.8626532</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>23.180176800000002</v>
       </c>
-      <c r="I2">
+      <c r="J2">
+        <v>19.890588099999999</v>
+      </c>
+      <c r="K2">
         <v>29.463846499999999</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>39.864450499999997</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>26.697452899999998</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>22.268657999999999</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>31.375084399999999</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>31.711031200000001</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>36.227778600000001</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>23.476119099999998</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>20.785548800000001</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>28.367283400000002</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>32.0378361</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>27.557760800000001</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>24.551466900000001</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>33.437852300000003</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>32.685639199999997</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>29.938790099999999</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>19.795491699999999</v>
       </c>
       <c r="AB2">
+        <v>37.978155600000001</v>
+      </c>
+      <c r="AC2">
+        <v>20.161279400000002</v>
+      </c>
+      <c r="AD2">
         <v>37.762559899999999</v>
       </c>
-      <c r="AC2">
-        <v>20.776239400000001</v>
-      </c>
-      <c r="AD2">
+      <c r="AE2">
+        <v>37.0310579</v>
+      </c>
+      <c r="AF2">
         <v>39.859892100000003</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>31.321851299999999</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>196.8769504</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:34">
       <c r="A3">
         <v>30.111846400000001</v>
       </c>
       <c r="B3">
+        <v>23.755523199999999</v>
+      </c>
+      <c r="C3">
         <v>34.228596099999997</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>36.945263199999999</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>23.546418299999999</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>23.303966899999999</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>30.457967</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>31.236270999999999</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>22.666101099999999</v>
       </c>
-      <c r="I3">
+      <c r="J3">
+        <v>18.896128699999998</v>
+      </c>
+      <c r="K3">
         <v>32.551859499999999</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>38.988514600000002</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>23.485008300000001</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>22.382505699999999</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>30.905259900000001</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>30.828492700000002</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>34.818810200000001</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>22.548014500000001</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>20.696355499999999</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>28.268283400000001</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>31.802447399999998</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>27.906593099999998</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>24.9234896</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>33.311425900000003</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>32.670926100000003</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>29.9540866</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>19.4573167</v>
       </c>
       <c r="AB3">
+        <v>33.053031500000003</v>
+      </c>
+      <c r="AC3">
+        <v>21.4212761</v>
+      </c>
+      <c r="AD3">
         <v>36.961469200000003</v>
       </c>
-      <c r="AC3">
-        <v>21.053889900000001</v>
-      </c>
-      <c r="AD3">
+      <c r="AE3">
+        <v>34.409978199999998</v>
+      </c>
+      <c r="AF3">
         <v>39.610723800000002</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>31.222946</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>195.86600770000001</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:34">
       <c r="A4">
         <v>23.664451199999998</v>
       </c>
       <c r="B4">
+        <v>20.190555</v>
+      </c>
+      <c r="C4">
         <v>31.550422399999999</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>36.6611653</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>23.6047905</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>23.6743402</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>31.136472900000001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>31.439253900000001</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>21.942268299999999</v>
       </c>
-      <c r="I4">
+      <c r="J4">
+        <v>19.0614089</v>
+      </c>
+      <c r="K4">
         <v>29.133546899999999</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>38.776473199999998</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>22.430048200000002</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>22.490158999999998</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>31.061500299999999</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>31.1385659</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>34.313246900000003</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>23.315365</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>22.680789399999998</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>28.211517799999999</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>32.238650200000002</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>27.9123287</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>24.8009412</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>33.492312499999997</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>32.467418799999997</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>29.639435500000001</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>19.531683600000001</v>
       </c>
       <c r="AB4">
+        <v>30.943910800000001</v>
+      </c>
+      <c r="AC4">
+        <v>19.835302599999999</v>
+      </c>
+      <c r="AD4">
         <v>37.148686699999999</v>
       </c>
-      <c r="AC4">
-        <v>20.8425841</v>
-      </c>
-      <c r="AD4">
+      <c r="AE4">
+        <v>38.870195500000001</v>
+      </c>
+      <c r="AF4">
         <v>39.458078899999997</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>30.944016099999999</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>230.6501581</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>23.539224300000001</v>
       </c>
       <c r="B5">
+        <v>21.822381700000001</v>
+      </c>
+      <c r="C5">
         <v>39.9334609</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>37.1001355</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>23.326782999999999</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>23.439363400000001</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>30.783950000000001</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>31.125232199999999</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>21.934104900000001</v>
       </c>
-      <c r="I5">
+      <c r="J5">
+        <v>19.247377799999999</v>
+      </c>
+      <c r="K5">
         <v>29.549876099999999</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>39.0689402</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>22.616427900000001</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>22.758524900000001</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>32.398553499999998</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>30.821614700000001</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>34.3906201</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>22.2719551</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>20.743437</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>28.398571799999999</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>32.034119400000002</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>27.5981992</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>24.8327168</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>33.532809100000001</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>32.661562400000001</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>30.021639100000002</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>19.874066599999999</v>
       </c>
       <c r="AB5">
+        <v>38.053742800000002</v>
+      </c>
+      <c r="AC5">
+        <v>22.1399787</v>
+      </c>
+      <c r="AD5">
         <v>37.1828565</v>
       </c>
-      <c r="AC5">
-        <v>21.099758900000001</v>
-      </c>
-      <c r="AD5">
+      <c r="AE5">
+        <v>41.361932799999998</v>
+      </c>
+      <c r="AF5">
         <v>38.767535100000003</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>31.0389254</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>254.72812020000001</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>22.890970599999999</v>
       </c>
       <c r="B6">
+        <v>20.144736399999999</v>
+      </c>
+      <c r="C6">
         <v>31.2977089</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>37.115211700000003</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>23.204108399999999</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>23.552039799999999</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>30.4197308</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>31.1593205</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>22.427782100000002</v>
       </c>
-      <c r="I6">
+      <c r="J6">
+        <v>18.983889399999999</v>
+      </c>
+      <c r="K6">
         <v>29.2696437</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>39.157088000000002</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>23.7702615</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>22.959852099999999</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>30.884052400000002</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>31.140827900000001</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>34.3421466</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>22.890798499999999</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>21.543750200000002</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>28.433869099999999</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>31.841926999999998</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>27.7114656</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>24.6521486</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>33.373731599999999</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>32.627151599999998</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>29.467260700000001</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>19.6271819</v>
       </c>
       <c r="AB6">
+        <v>37.229123600000001</v>
+      </c>
+      <c r="AC6">
+        <v>19.9704576</v>
+      </c>
+      <c r="AD6">
         <v>37.322336999999997</v>
       </c>
-      <c r="AC6">
-        <v>20.8423968</v>
-      </c>
-      <c r="AD6">
+      <c r="AE6">
+        <v>35.773906500000002</v>
+      </c>
+      <c r="AF6">
         <v>40.235083600000003</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>30.6984292</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>205.52665680000001</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:34">
       <c r="A7">
         <v>24.0632409</v>
       </c>
       <c r="B7">
+        <v>20.9690999</v>
+      </c>
+      <c r="C7">
         <v>34.707096399999998</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>36.862937799999997</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>23.516742199999999</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>23.653825099999999</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>31.3044397</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>31.1308224</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>23.141275100000001</v>
       </c>
-      <c r="I7">
+      <c r="J7">
+        <v>19.035260999999998</v>
+      </c>
+      <c r="K7">
         <v>29.467832000000001</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>39.016520999999997</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>22.741047200000001</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>22.520880200000001</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>30.660525700000001</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>30.991172899999999</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>34.184051099999998</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>22.904914600000001</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>20.614737099999999</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>28.3680901</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>31.810825600000001</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>27.406101</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>24.625743799999999</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>33.357650800000002</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>32.782536999999998</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>29.968998299999999</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>19.5007862</v>
       </c>
       <c r="AB7">
+        <v>40.687995600000001</v>
+      </c>
+      <c r="AC7">
+        <v>20.0005962</v>
+      </c>
+      <c r="AD7">
         <v>37.2464455</v>
       </c>
-      <c r="AC7">
-        <v>21.126986200000001</v>
-      </c>
-      <c r="AD7">
+      <c r="AE7">
+        <v>37.382309499999998</v>
+      </c>
+      <c r="AF7">
         <v>39.884360399999998</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>31.798979200000002</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>186.30095800000001</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:34">
       <c r="A8">
         <v>23.596895799999999</v>
       </c>
       <c r="B8">
+        <v>21.202151799999999</v>
+      </c>
+      <c r="C8">
         <v>32.958381099999997</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>37.391449299999998</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>23.2144701</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>24.0079107</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>30.776996700000002</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>30.929322800000001</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>22.865690099999998</v>
       </c>
-      <c r="I8">
+      <c r="J8">
+        <v>19.151135499999999</v>
+      </c>
+      <c r="K8">
         <v>28.9980203</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>39.676043999999997</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>22.662402199999999</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>22.5615846</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>31.111773400000001</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>31.1177995</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>35.170932499999999</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>22.7189999</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>20.413129300000001</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>28.1629033</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>32.3488471</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>27.432849099999999</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>24.676009400000002</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>33.096064200000001</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>32.574205499999998</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>29.6916689</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>19.754848200000001</v>
       </c>
       <c r="AB8">
+        <v>45.9550573</v>
+      </c>
+      <c r="AC8">
+        <v>21.104252800000001</v>
+      </c>
+      <c r="AD8">
         <v>36.636707899999998</v>
       </c>
-      <c r="AC8">
-        <v>21.422228799999999</v>
-      </c>
-      <c r="AD8">
+      <c r="AE8">
+        <v>35.889959699999999</v>
+      </c>
+      <c r="AF8">
         <v>39.476754900000003</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>30.764095300000001</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>187.30661180000001</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:34">
       <c r="A9">
         <v>21.871683399999998</v>
       </c>
       <c r="B9">
+        <v>22.424585400000002</v>
+      </c>
+      <c r="C9">
         <v>31.815616500000001</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>36.743985799999997</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>23.402512300000001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>23.412735600000001</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>30.524284999999999</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>31.554673000000001</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>22.667501399999999</v>
       </c>
-      <c r="I9">
+      <c r="J9">
+        <v>18.936574499999999</v>
+      </c>
+      <c r="K9">
         <v>29.735239100000001</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>39.429108499999998</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>23.210511</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>22.392953500000001</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>30.547104999999998</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>31.094121399999999</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>38.649817499999997</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>22.6400927</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>20.489513299999999</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>28.249880900000001</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>32.031991400000003</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>27.599529400000002</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>24.888608000000001</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>33.186168500000001</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>32.669938600000002</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>29.582386799999998</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>19.4761591</v>
       </c>
       <c r="AB9">
+        <v>29.541830000000001</v>
+      </c>
+      <c r="AC9">
+        <v>25.677781499999998</v>
+      </c>
+      <c r="AD9">
         <v>36.797737099999999</v>
       </c>
-      <c r="AC9">
-        <v>21.5981193</v>
-      </c>
-      <c r="AD9">
+      <c r="AE9">
+        <v>35.964413</v>
+      </c>
+      <c r="AF9">
         <v>39.920210699999998</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>31.0376634</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>186.73118009999999</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:34">
       <c r="A10">
         <v>22.4252152</v>
       </c>
       <c r="B10">
+        <v>22.129849499999999</v>
+      </c>
+      <c r="C10">
         <v>31.997655200000001</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>36.8929434</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>23.876839700000001</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>23.331968799999999</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>30.620195599999999</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>30.999107599999999</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>22.694161699999999</v>
       </c>
-      <c r="I10">
+      <c r="J10">
+        <v>42.557935200000003</v>
+      </c>
+      <c r="K10">
         <v>29.955702800000001</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>39.044549500000002</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>22.6701607</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>22.708039599999999</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>30.566921799999999</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>31.227709600000001</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>37.994616100000002</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>22.537944499999998</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>21.105184999999999</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>27.9793451</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>31.767320099999999</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>27.5281947</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>24.712631500000001</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>33.3578124</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>32.535783199999997</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>29.727990599999998</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>19.557525900000002</v>
       </c>
       <c r="AB10">
+        <v>29.943361400000001</v>
+      </c>
+      <c r="AC10">
+        <v>22.935872799999999</v>
+      </c>
+      <c r="AD10">
         <v>37.652921999999997</v>
       </c>
-      <c r="AC10">
-        <v>20.935212400000001</v>
-      </c>
-      <c r="AD10">
+      <c r="AE10">
+        <v>36.858322399999999</v>
+      </c>
+      <c r="AF10">
         <v>40.127508499999998</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>31.082501100000002</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>186.41340980000001</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:34">
       <c r="A11">
         <v>23.1649034</v>
       </c>
       <c r="B11">
+        <v>21.0417539</v>
+      </c>
+      <c r="C11">
         <v>28.8337824</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>37.092866000000001</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>23.409769799999999</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>23.236961699999998</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>34.807718700000002</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>31.197047999999999</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>22.570520500000001</v>
       </c>
-      <c r="I11">
+      <c r="J11">
+        <v>33.867991600000003</v>
+      </c>
+      <c r="K11">
         <v>29.2834416</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>38.983092999999997</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>22.495836799999999</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>22.515419099999999</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>30.997132400000002</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>30.6408287</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>39.687785499999997</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>24.018879500000001</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>20.369388699999998</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>28.500276400000001</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>32.228361200000002</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>27.0643475</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>24.845546800000001</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>33.462463900000003</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>32.885311000000002</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>29.582593599999999</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>19.650598800000001</v>
       </c>
       <c r="AB11">
+        <v>28.946148099999998</v>
+      </c>
+      <c r="AC11">
+        <v>22.794932800000002</v>
+      </c>
+      <c r="AD11">
         <v>35.471338199999998</v>
       </c>
-      <c r="AC11">
-        <v>21.480393100000001</v>
-      </c>
-      <c r="AD11">
+      <c r="AE11">
+        <v>37.899305200000001</v>
+      </c>
+      <c r="AF11">
         <v>40.311247299999998</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>31.001213400000001</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>186.02428699999999</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:34">
       <c r="A12">
         <v>22.335911400000001</v>
       </c>
       <c r="B12">
+        <v>19.925836799999999</v>
+      </c>
+      <c r="C12">
         <v>30.354681500000002</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>36.639861400000001</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>23.559334799999998</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>23.286640500000001</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>31.087496399999999</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>31.003245400000001</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>23.377967600000002</v>
       </c>
-      <c r="I12">
+      <c r="J12">
+        <v>32.766488799999998</v>
+      </c>
+      <c r="K12">
         <v>29.543621900000002</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>38.883388699999998</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>22.794244800000001</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>22.574522399999999</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>30.7089587</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>30.780374200000001</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>33.832915300000003</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>23.291049099999999</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>21.591142699999999</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>28.9958493</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>32.082834099999999</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>27.524891799999999</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>24.532316099999999</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>33.066673999999999</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>32.742116799999998</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>30.2518596</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>19.667135300000002</v>
       </c>
       <c r="AB12">
+        <v>38.831349899999999</v>
+      </c>
+      <c r="AC12">
+        <v>23.0553174</v>
+      </c>
+      <c r="AD12">
         <v>38.784003599999998</v>
       </c>
-      <c r="AC12">
-        <v>24.198278999999999</v>
-      </c>
-      <c r="AD12">
+      <c r="AE12">
+        <v>37.4073086</v>
+      </c>
+      <c r="AF12">
         <v>39.738619200000002</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <v>30.876301399999999</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <v>196.8494705</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:34">
       <c r="A13">
         <v>22.432126499999999</v>
       </c>
       <c r="B13">
+        <v>22.051288400000001</v>
+      </c>
+      <c r="C13">
         <v>27.3244179</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>37.1390113</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>23.7699243</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>23.543099600000001</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>30.574148300000001</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>31.005137099999999</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>22.700710600000001</v>
       </c>
-      <c r="I13">
+      <c r="J13">
+        <v>21.885065000000001</v>
+      </c>
+      <c r="K13">
         <v>29.364372500000002</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>39.193269999999998</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>22.6561573</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>22.7181043</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>30.643849700000001</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>31.037062500000001</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>35.135179600000001</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>23.470209799999999</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>20.641501699999999</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>27.927212000000001</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>32.8150336</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>27.839416199999999</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>24.723261900000001</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>33.208153000000003</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>32.555506999999999</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>29.9055711</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>19.622428800000002</v>
       </c>
       <c r="AB13">
+        <v>32.955956399999998</v>
+      </c>
+      <c r="AC13">
+        <v>26.823168299999999</v>
+      </c>
+      <c r="AD13">
         <v>37.081584499999998</v>
       </c>
-      <c r="AC13">
-        <v>22.432605899999999</v>
-      </c>
-      <c r="AD13">
+      <c r="AE13">
+        <v>37.819294599999999</v>
+      </c>
+      <c r="AF13">
         <v>39.740558499999999</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <v>31.315499500000001</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <v>499.40708890000002</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:34">
       <c r="A14">
         <v>25.818752700000001</v>
       </c>
       <c r="B14">
+        <v>23.668724099999999</v>
+      </c>
+      <c r="C14">
         <v>26.853349099999999</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>36.976455600000001</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>23.505402799999999</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>23.130086200000001</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>30.818950099999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>30.910946899999999</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>22.793044200000001</v>
       </c>
-      <c r="I14">
+      <c r="J14">
+        <v>18.9884749</v>
+      </c>
+      <c r="K14">
         <v>29.223915000000002</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>39.162350799999999</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>22.527508399999999</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>22.729190200000001</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>30.794204000000001</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>31.141209400000001</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>34.9228934</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>23.089370299999999</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>21.474324500000002</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>28.891799800000001</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>32.1579038</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>27.407578099999998</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>24.645977800000001</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>33.172694900000003</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>32.489592500000001</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>29.717385100000001</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>19.564395300000001</v>
       </c>
       <c r="AB14">
+        <v>31.7845336</v>
+      </c>
+      <c r="AC14">
+        <v>21.627500600000001</v>
+      </c>
+      <c r="AD14">
         <v>36.916313299999999</v>
       </c>
-      <c r="AC14">
-        <v>21.088453300000001</v>
-      </c>
-      <c r="AD14">
+      <c r="AE14">
+        <v>38.340660999999997</v>
+      </c>
+      <c r="AF14">
         <v>40.115551000000004</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <v>31.405684300000001</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <v>388.61744420000002</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>22.339626899999999</v>
       </c>
       <c r="B15">
+        <v>20.243538699999998</v>
+      </c>
+      <c r="C15">
         <v>28.4563521</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>37.075961700000001</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>23.0516048</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>23.777943700000002</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>30.713104099999999</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>31.179721499999999</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>22.535996900000001</v>
       </c>
-      <c r="I15">
+      <c r="J15">
+        <v>18.918067700000002</v>
+      </c>
+      <c r="K15">
         <v>29.562011099999999</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>39.611710199999997</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>22.966071500000002</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>22.535747600000001</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>30.5755856</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>30.853354299999999</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>34.270074600000001</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>23.069135800000002</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>21.041101699999999</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>28.1033057</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>31.983611199999999</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>27.303798</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>24.441744100000001</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>34.101813200000002</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>32.541709699999998</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>29.518197399999998</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>19.6309358</v>
       </c>
       <c r="AB15">
+        <v>35.4940219</v>
+      </c>
+      <c r="AC15">
+        <v>20.990163800000001</v>
+      </c>
+      <c r="AD15">
         <v>31.544120199999998</v>
       </c>
-      <c r="AC15">
-        <v>21.611992799999999</v>
-      </c>
-      <c r="AD15">
+      <c r="AE15">
+        <v>37.5400141</v>
+      </c>
+      <c r="AF15">
         <v>40.094544499999998</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <v>30.834132199999999</v>
       </c>
-      <c r="AF15">
+      <c r="AH15">
         <v>443.78787970000002</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:34">
       <c r="A16">
         <v>21.6793248</v>
       </c>
       <c r="B16">
+        <v>22.497299600000002</v>
+      </c>
+      <c r="C16">
         <v>27.111587199999999</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>37.046095899999997</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>23.5731848</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>23.146301300000001</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>32.009794399999997</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>30.926037399999998</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>22.7620395</v>
       </c>
-      <c r="I16">
+      <c r="J16">
+        <v>18.942506699999999</v>
+      </c>
+      <c r="K16">
         <v>29.762592699999999</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>40.1084532</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>22.649172100000001</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>22.6125151</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>31.744779600000001</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>31.181129200000001</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>34.669744199999997</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>23.221384799999999</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>20.5137483</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>28.7025717</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>31.6568416</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>27.430098699999999</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>24.7634531</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>34.021810700000003</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>33.319010300000002</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>29.663644099999999</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>19.674653899999999</v>
       </c>
       <c r="AB16">
+        <v>50.619846199999998</v>
+      </c>
+      <c r="AC16">
+        <v>21.259661600000001</v>
+      </c>
+      <c r="AD16">
         <v>34.366406699999999</v>
       </c>
-      <c r="AC16">
-        <v>21.185363899999999</v>
-      </c>
-      <c r="AD16">
+      <c r="AE16">
+        <v>36.914579500000002</v>
+      </c>
+      <c r="AF16">
         <v>40.105055200000002</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
         <v>31.387208099999999</v>
       </c>
-      <c r="AF16">
+      <c r="AH16">
         <v>216.10627450000001</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:34">
       <c r="A17">
         <v>22.382254700000001</v>
       </c>
       <c r="B17">
+        <v>24.179241099999999</v>
+      </c>
+      <c r="C17">
         <v>28.386713199999999</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>36.975319300000002</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>23.426401599999998</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>23.5155885</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>30.482984699999999</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>31.225142000000002</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>22.876207600000001</v>
       </c>
-      <c r="I17">
+      <c r="J17">
+        <v>18.735221599999999</v>
+      </c>
+      <c r="K17">
         <v>29.641031099999999</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>38.916047399999997</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>23.056408399999999</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>22.5876956</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>30.982530199999999</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>30.826197199999999</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>34.155321800000003</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>23.004955899999999</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>21.004905399999998</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>27.942133699999999</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>32.513577300000001</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>27.316245899999998</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>24.592430199999999</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>33.6399428</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>33.177763300000002</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>29.478264200000002</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <v>19.573164899999998</v>
       </c>
       <c r="AB17">
+        <v>45.5260733</v>
+      </c>
+      <c r="AC17">
+        <v>25.080229200000002</v>
+      </c>
+      <c r="AD17">
         <v>37.489918600000003</v>
       </c>
-      <c r="AC17">
-        <v>21.1478362</v>
-      </c>
-      <c r="AD17">
+      <c r="AE17">
+        <v>37.537789500000002</v>
+      </c>
+      <c r="AF17">
         <v>34.851314899999998</v>
       </c>
-      <c r="AE17">
+      <c r="AG17">
         <v>32.723245599999998</v>
       </c>
-      <c r="AF17">
+      <c r="AH17">
         <v>192.01013119999999</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:34">
       <c r="A18">
         <v>22.343295600000001</v>
       </c>
       <c r="B18">
+        <v>22.304637199999998</v>
+      </c>
+      <c r="C18">
         <v>27.593567499999999</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>36.894635999999998</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>24.059888999999998</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>23.223267</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>30.925154899999999</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>30.982249299999999</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>22.684176099999998</v>
       </c>
-      <c r="I18">
+      <c r="J18">
+        <v>18.719189799999999</v>
+      </c>
+      <c r="K18">
         <v>29.3660274</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>39.329716699999999</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>22.740019799999999</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>22.622864</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>31.1002671</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>30.921507399999999</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>34.785989899999997</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>23.394885599999999</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>21.373364800000001</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>28.782897800000001</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>31.602554099999999</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>27.295432399999999</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>24.830695899999998</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>33.969773099999998</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>32.971556800000002</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>30.101066400000001</v>
       </c>
-      <c r="Y18">
+      <c r="AA18">
         <v>19.556504100000002</v>
       </c>
       <c r="AB18">
+        <v>43.7100729</v>
+      </c>
+      <c r="AC18">
+        <v>21.327499</v>
+      </c>
+      <c r="AD18">
         <v>37.308549999999997</v>
       </c>
-      <c r="AC18">
-        <v>22.6901671</v>
-      </c>
-      <c r="AD18">
+      <c r="AE18">
+        <v>37.818475499999998</v>
+      </c>
+      <c r="AF18">
         <v>39.928932500000002</v>
       </c>
-      <c r="AE18">
+      <c r="AG18">
         <v>31.0849647</v>
       </c>
-      <c r="AF18">
+      <c r="AH18">
         <v>261.28450600000002</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:34">
       <c r="A19">
         <v>22.2817905</v>
       </c>
       <c r="B19">
+        <v>22.167036299999999</v>
+      </c>
+      <c r="C19">
         <v>27.7287955</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>36.7789097</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>23.246062999999999</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>23.3270412</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>30.971918800000001</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>31.244427999999999</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>22.862771299999999</v>
       </c>
-      <c r="I19">
+      <c r="J19">
+        <v>18.9000579</v>
+      </c>
+      <c r="K19">
         <v>29.446211900000002</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>38.7864626</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>22.514405</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>23.107036999999998</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>30.521438400000001</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>30.761356500000002</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>34.475651499999998</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>23.124678400000001</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>20.539199199999999</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>27.888967399999999</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>32.705022999999997</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>27.218807600000002</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>24.475370300000002</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>33.752726099999997</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>32.428297000000001</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>30.0125156</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <v>19.6904182</v>
       </c>
       <c r="AB19">
+        <v>47.260838300000003</v>
+      </c>
+      <c r="AC19">
+        <v>21.4457877</v>
+      </c>
+      <c r="AD19">
         <v>37.998906400000003</v>
       </c>
-      <c r="AC19">
-        <v>20.9580652</v>
-      </c>
-      <c r="AD19">
+      <c r="AE19">
+        <v>36.592231200000001</v>
+      </c>
+      <c r="AF19">
         <v>40.2234616</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
         <v>32.048485399999997</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <v>490.2756761</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:34">
       <c r="A20">
         <v>22.365392499999999</v>
       </c>
       <c r="B20">
+        <v>19.878406200000001</v>
+      </c>
+      <c r="C20">
         <v>27.367467000000001</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>36.917647199999998</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>23.483650999999998</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>23.9601978</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>31.100504099999998</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>31.0462223</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>22.735697300000002</v>
       </c>
-      <c r="I20">
+      <c r="J20">
+        <v>18.925104900000001</v>
+      </c>
+      <c r="K20">
         <v>30.0104525</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>38.698787699999997</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>22.639863900000002</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>22.613397599999999</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>30.5562209</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>31.2049208</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>34.236209299999999</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>23.473514399999999</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>20.963263399999999</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>28.310120399999999</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>32.461976200000002</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>27.924176599999999</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>24.789126599999999</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>34.0672687</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>33.008942900000001</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>29.578771499999998</v>
       </c>
-      <c r="Y20">
+      <c r="AA20">
         <v>19.770728299999998</v>
       </c>
       <c r="AB20">
+        <v>46.826441799999998</v>
+      </c>
+      <c r="AC20">
+        <v>21.169067699999999</v>
+      </c>
+      <c r="AD20">
         <v>37.185649900000001</v>
       </c>
-      <c r="AC20">
-        <v>20.959333699999998</v>
-      </c>
-      <c r="AD20">
+      <c r="AE20">
+        <v>37.5332078</v>
+      </c>
+      <c r="AF20">
         <v>40.163072800000002</v>
       </c>
-      <c r="AE20">
+      <c r="AG20">
         <v>31.375102600000002</v>
       </c>
-      <c r="AF20">
+      <c r="AH20">
         <v>353.77102070000001</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:34">
       <c r="A21">
         <v>22.2823256</v>
       </c>
       <c r="B21">
+        <v>19.887887500000001</v>
+      </c>
+      <c r="C21">
         <v>27.945150999999999</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>36.883661199999999</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>23.437856400000001</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>23.472105899999999</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>30.640651800000001</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>31.232930199999998</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>22.4490473</v>
       </c>
-      <c r="I21">
+      <c r="J21">
+        <v>20.448049999999999</v>
+      </c>
+      <c r="K21">
         <v>29.067226399999999</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>39.391964899999998</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>22.8148056</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>22.5369514</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>31.7767093</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>30.878656700000001</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>34.691778999999997</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>23.320099500000001</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>20.792456699999999</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>28.4141464</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>31.646264500000001</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>27.9022899</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>24.885967699999998</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>33.704152399999998</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>32.432095699999998</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>29.6771286</v>
       </c>
-      <c r="Y21">
+      <c r="AA21">
         <v>19.596042099999998</v>
       </c>
       <c r="AB21">
+        <v>38.836339099999996</v>
+      </c>
+      <c r="AC21">
+        <v>21.5680789</v>
+      </c>
+      <c r="AD21">
         <v>36.7510592</v>
       </c>
-      <c r="AC21">
-        <v>20.934215999999999</v>
-      </c>
-      <c r="AD21">
+      <c r="AE21">
+        <v>37.015269199999999</v>
+      </c>
+      <c r="AF21">
         <v>40.000424799999998</v>
       </c>
-      <c r="AE21">
+      <c r="AG21">
         <v>31.007735400000001</v>
       </c>
-      <c r="AF21">
+      <c r="AH21">
         <v>304.70334439999999</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:34">
       <c r="A22">
         <v>22.647880399999998</v>
       </c>
       <c r="B22">
+        <v>19.736843400000001</v>
+      </c>
+      <c r="C22">
         <v>27.661205899999999</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>37.148280300000003</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>23.445095899999998</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>23.815954000000001</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>31.010919900000001</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>31.061971199999999</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>22.5049162</v>
       </c>
-      <c r="I22">
+      <c r="J22">
+        <v>19.725563399999999</v>
+      </c>
+      <c r="K22">
         <v>29.404015699999999</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>38.762036999999999</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>22.6595245</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>22.555760599999999</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>30.583648799999999</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>31.0215052</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>34.667717199999998</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>23.383086200000001</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>20.333155099999999</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>28.1527505</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>31.278846000000001</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>27.277110499999999</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>24.645476899999998</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>33.970387500000001</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>32.961179600000001</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>29.722495599999998</v>
       </c>
-      <c r="Y22">
+      <c r="AA22">
         <v>19.562252999999998</v>
       </c>
       <c r="AB22">
+        <v>36.291856099999997</v>
+      </c>
+      <c r="AC22">
+        <v>21.015033500000001</v>
+      </c>
+      <c r="AD22">
         <v>37.282678400000002</v>
       </c>
-      <c r="AC22">
-        <v>21.004919999999998</v>
-      </c>
-      <c r="AD22">
+      <c r="AE22">
+        <v>36.115702200000001</v>
+      </c>
+      <c r="AF22">
         <v>40.380497400000003</v>
       </c>
-      <c r="AE22">
+      <c r="AG22">
         <v>30.916003100000001</v>
       </c>
-      <c r="AF22">
+      <c r="AH22">
         <v>202.14608179999999</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:34">
       <c r="A23">
         <v>22.5590592</v>
       </c>
       <c r="B23">
+        <v>19.784228500000001</v>
+      </c>
+      <c r="C23">
         <v>27.469731400000001</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>36.989961200000003</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>23.908596299999999</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>23.404542599999999</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>30.647685500000001</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>31.226139499999999</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>22.639100800000001</v>
       </c>
-      <c r="I23">
+      <c r="J23">
+        <v>19.451892300000001</v>
+      </c>
+      <c r="K23">
         <v>29.292016799999999</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>39.150542999999999</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>22.347609299999998</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>22.664127499999999</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>30.364913900000001</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>31.118024399999999</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>34.271765500000001</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>23.013027000000001</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>20.598284100000001</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>28.181503299999999</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>31.734953300000001</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>27.246771899999999</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>25.361099800000002</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>34.512166000000001</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <v>32.455976999999997</v>
       </c>
-      <c r="X23">
+      <c r="Z23">
         <v>30.307077499999998</v>
       </c>
-      <c r="Y23">
+      <c r="AA23">
         <v>20.449777600000001</v>
       </c>
       <c r="AB23">
+        <v>36.342514299999998</v>
+      </c>
+      <c r="AC23">
+        <v>19.1746488</v>
+      </c>
+      <c r="AD23">
         <v>37.895478500000003</v>
       </c>
-      <c r="AC23">
-        <v>22.7404416</v>
-      </c>
-      <c r="AD23">
+      <c r="AE23">
+        <v>37.618329799999998</v>
+      </c>
+      <c r="AF23">
         <v>40.424985300000003</v>
       </c>
-      <c r="AE23">
+      <c r="AG23">
         <v>31.182403300000001</v>
       </c>
-      <c r="AF23">
+      <c r="AH23">
         <v>230.48543219999999</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:34">
       <c r="A24">
         <v>23.1852488</v>
       </c>
       <c r="B24">
+        <v>19.852524599999999</v>
+      </c>
+      <c r="C24">
         <v>27.994746200000002</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>37.316611100000003</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>23.636406900000001</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>23.503898599999999</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>30.889744</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>30.8680789</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>22.712456</v>
       </c>
-      <c r="I24">
+      <c r="J24">
+        <v>19.2474849</v>
+      </c>
+      <c r="K24">
         <v>29.0505654</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>39.1191928</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>22.660468699999999</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>23.131275800000001</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>30.941179600000002</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>30.9927563</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>34.269208399999997</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>23.4954532</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>20.445188099999999</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>29.254478200000001</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>31.7954142</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>27.4933266</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>24.767856900000002</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>33.6655564</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <v>32.467293499999997</v>
       </c>
-      <c r="X24">
+      <c r="Z24">
         <v>29.6618937</v>
       </c>
-      <c r="Y24">
+      <c r="AA24">
         <v>20.377678800000002</v>
       </c>
       <c r="AB24">
+        <v>35.886529299999999</v>
+      </c>
+      <c r="AC24">
+        <v>21.609839399999998</v>
+      </c>
+      <c r="AD24">
         <v>37.453160799999999</v>
       </c>
-      <c r="AC24">
-        <v>24.9405736</v>
-      </c>
-      <c r="AD24">
+      <c r="AE24">
+        <v>38.584595399999998</v>
+      </c>
+      <c r="AF24">
         <v>40.287450300000003</v>
       </c>
-      <c r="AE24">
+      <c r="AG24">
         <v>30.909030699999999</v>
       </c>
-      <c r="AF24">
+      <c r="AH24">
         <v>330.05276529999998</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:34">
       <c r="A25">
         <v>22.442600500000001</v>
       </c>
       <c r="B25">
+        <v>19.819458300000001</v>
+      </c>
+      <c r="C25">
         <v>27.595261099999998</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>37.290722100000004</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>23.4774235</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>23.073744000000001</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>30.3926935</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>31.128943599999999</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>22.8765608</v>
       </c>
-      <c r="I25">
+      <c r="J25">
+        <v>20.423017099999999</v>
+      </c>
+      <c r="K25">
         <v>29.147568700000001</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>39.174689700000002</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>22.4497529</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>22.635079699999999</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>30.449539399999999</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>30.875302900000001</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>34.835149600000001</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>22.8245836</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>20.272501699999999</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>28.2001755</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>31.406950299999998</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>26.299076599999999</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>24.849681799999999</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>33.1703872</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <v>32.586301900000002</v>
       </c>
-      <c r="X25">
+      <c r="Z25">
         <v>29.7885214</v>
       </c>
-      <c r="Y25">
+      <c r="AA25">
         <v>20.718505799999999</v>
       </c>
       <c r="AB25">
+        <v>38.333571399999997</v>
+      </c>
+      <c r="AC25">
+        <v>32.059498400000003</v>
+      </c>
+      <c r="AD25">
         <v>36.2781406</v>
       </c>
-      <c r="AC25">
-        <v>26.6731345</v>
-      </c>
-      <c r="AD25">
+      <c r="AE25">
+        <v>38.427350799999999</v>
+      </c>
+      <c r="AF25">
         <v>39.569284199999998</v>
       </c>
-      <c r="AE25">
+      <c r="AG25">
         <v>31.218077099999999</v>
       </c>
-      <c r="AF25">
+      <c r="AH25">
         <v>478.28139440000001</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:34">
       <c r="A26">
         <v>22.290400200000001</v>
       </c>
       <c r="B26">
+        <v>19.892362299999998</v>
+      </c>
+      <c r="C26">
         <v>28.898908800000001</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>36.967261700000002</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>23.340628599999999</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>23.807300699999999</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>30.805674199999999</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>30.9566652</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>22.456429400000001</v>
       </c>
-      <c r="I26">
+      <c r="J26">
+        <v>20.866743700000001</v>
+      </c>
+      <c r="K26">
         <v>29.298244199999999</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>38.991338200000001</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>22.4714092</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>22.914041999999998</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>32.017684799999998</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>31.478343599999999</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>34.728974899999997</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>22.986550300000001</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>20.2849346</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>28.125842599999999</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>31.867764999999999</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>27.9308874</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>24.7180967</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>33.663084900000001</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
         <v>32.776360400000002</v>
       </c>
-      <c r="X26">
+      <c r="Z26">
         <v>30.025523700000001</v>
       </c>
-      <c r="Y26">
+      <c r="AA26">
         <v>19.628173100000001</v>
       </c>
       <c r="AB26">
+        <v>45.4869719</v>
+      </c>
+      <c r="AC26">
+        <v>24.987238900000001</v>
+      </c>
+      <c r="AD26">
         <v>37.589499199999999</v>
       </c>
-      <c r="AC26">
-        <v>27.2057456</v>
-      </c>
-      <c r="AD26">
+      <c r="AE26">
+        <v>33.801696200000002</v>
+      </c>
+      <c r="AF26">
         <v>39.834127899999999</v>
       </c>
-      <c r="AE26">
+      <c r="AG26">
         <v>31.332447800000001</v>
       </c>
-      <c r="AF26">
+      <c r="AH26">
         <v>324.78025539999999</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:34">
       <c r="A27">
         <v>39.663802099999998</v>
       </c>
       <c r="B27">
+        <v>19.733985400000002</v>
+      </c>
+      <c r="C27">
         <v>30.0839684</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>36.930202899999998</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>23.495842100000001</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>23.228842700000001</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>30.317888799999999</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>31.337566599999999</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>22.6595783</v>
       </c>
-      <c r="I27">
+      <c r="J27">
+        <v>20.270539500000002</v>
+      </c>
+      <c r="K27">
         <v>29.4990573</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>39.342339899999999</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>22.4592466</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>22.675069300000001</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>31.1374055</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>31.358752800000001</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>34.451858299999998</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>23.039989599999998</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>20.206670200000001</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>28.805402300000001</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>31.147818699999998</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>26.261459200000001</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>24.7289493</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>33.261195800000003</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <v>32.8979456</v>
       </c>
-      <c r="X27">
+      <c r="Z27">
         <v>29.695772099999999</v>
       </c>
-      <c r="Y27">
+      <c r="AA27">
         <v>19.691122499999999</v>
       </c>
       <c r="AB27">
+        <v>44.073557200000003</v>
+      </c>
+      <c r="AC27">
+        <v>28.5582113</v>
+      </c>
+      <c r="AD27">
         <v>36.877907100000002</v>
       </c>
-      <c r="AC27">
-        <v>25.207546300000001</v>
-      </c>
-      <c r="AD27">
+      <c r="AE27">
+        <v>36.711451599999997</v>
+      </c>
+      <c r="AF27">
         <v>40.182341600000001</v>
       </c>
-      <c r="AE27">
+      <c r="AG27">
         <v>31.004833699999999</v>
       </c>
-      <c r="AF27">
+      <c r="AH27">
         <v>529.51304230000005</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:34">
       <c r="A28">
         <v>24.701759899999999</v>
       </c>
       <c r="B28">
+        <v>19.8044683</v>
+      </c>
+      <c r="C28">
         <v>28.144898300000001</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>36.750379299999999</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>23.859897</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>23.559432600000001</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>30.793274799999999</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>35.575003700000003</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>22.424609199999999</v>
       </c>
-      <c r="I28">
+      <c r="J28">
+        <v>20.387706099999999</v>
+      </c>
+      <c r="K28">
         <v>29.128748699999999</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>39.124048299999998</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>22.481855400000001</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>23.2468067</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>30.935305700000001</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>34.818823399999999</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>34.786222500000001</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>23.061074900000001</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>20.108478999999999</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>28.5637911</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>32.2339123</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>26.3018894</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>24.892227200000001</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>33.514443399999998</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
         <v>32.504846899999997</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <v>30.210932499999998</v>
       </c>
-      <c r="Y28">
+      <c r="AA28">
         <v>19.675048799999999</v>
       </c>
       <c r="AB28">
+        <v>44.4405103</v>
+      </c>
+      <c r="AC28">
+        <v>30.654212099999999</v>
+      </c>
+      <c r="AD28">
         <v>36.1766766</v>
       </c>
-      <c r="AC28">
-        <v>22.747361600000001</v>
-      </c>
-      <c r="AD28">
+      <c r="AE28">
+        <v>37.033335800000003</v>
+      </c>
+      <c r="AF28">
         <v>39.134899099999998</v>
       </c>
-      <c r="AE28">
+      <c r="AG28">
         <v>30.9290129</v>
       </c>
-      <c r="AF28">
+      <c r="AH28">
         <v>424.2176346</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:34">
       <c r="A29">
         <v>23.226563299999999</v>
       </c>
       <c r="B29">
+        <v>19.693003699999998</v>
+      </c>
+      <c r="C29">
         <v>27.433428899999999</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>36.792817800000002</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>23.566717700000002</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>23.1990272</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>30.311358999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>31.895443700000001</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>22.865464599999999</v>
       </c>
-      <c r="I29">
+      <c r="J29">
+        <v>19.993531000000001</v>
+      </c>
+      <c r="K29">
         <v>29.5869377</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>38.926563399999999</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>22.625971199999999</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>22.9703202</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>30.518879500000001</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>31.370647099999999</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>34.252333100000001</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>23.027461599999999</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>20.4556985</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>28.324356900000002</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>31.447546500000001</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>26.476217299999998</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>24.4190912</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>33.184339600000001</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
         <v>32.838051299999997</v>
       </c>
-      <c r="X29">
+      <c r="Z29">
         <v>30.486174399999999</v>
       </c>
-      <c r="Y29">
+      <c r="AA29">
         <v>19.564305000000001</v>
       </c>
       <c r="AB29">
+        <v>38.3317342</v>
+      </c>
+      <c r="AC29">
+        <v>27.679962700000001</v>
+      </c>
+      <c r="AD29">
         <v>37.470373600000002</v>
       </c>
-      <c r="AC29">
-        <v>22.886953500000001</v>
-      </c>
-      <c r="AD29">
+      <c r="AE29">
+        <v>36.810806399999997</v>
+      </c>
+      <c r="AF29">
         <v>39.877116100000002</v>
       </c>
-      <c r="AE29">
+      <c r="AG29">
         <v>30.9544921</v>
       </c>
-      <c r="AF29">
+      <c r="AH29">
         <v>444.17729730000002</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:34">
       <c r="A30">
         <v>22.010783400000001</v>
       </c>
       <c r="B30">
+        <v>19.6497812</v>
+      </c>
+      <c r="C30">
         <v>27.846499999999999</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>36.8615979</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>23.263778200000001</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>23.217956099999999</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>30.5861971</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>31.190373300000001</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>22.5573777</v>
       </c>
-      <c r="I30">
+      <c r="J30">
+        <v>19.3746647</v>
+      </c>
+      <c r="K30">
         <v>29.300995700000001</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>39.2734539</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>22.868742399999999</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>22.5873223</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>31.216434700000001</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>31.221541599999998</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>34.054054100000002</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>23.111547099999999</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>20.321717899999999</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <v>28.287731399999998</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>31.449056200000001</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>26.710635799999999</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <v>24.977094300000001</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>35.091436000000002</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
         <v>32.4831839</v>
       </c>
-      <c r="X30">
+      <c r="Z30">
         <v>31.5292095</v>
       </c>
-      <c r="Y30">
+      <c r="AA30">
         <v>19.658329899999998</v>
       </c>
       <c r="AB30">
+        <v>39.360416299999997</v>
+      </c>
+      <c r="AC30">
+        <v>25.065946199999999</v>
+      </c>
+      <c r="AD30">
         <v>36.899830899999998</v>
       </c>
-      <c r="AC30">
-        <v>21.729963699999999</v>
-      </c>
-      <c r="AD30">
+      <c r="AE30">
+        <v>36.779981100000001</v>
+      </c>
+      <c r="AF30">
         <v>39.916538899999999</v>
       </c>
-      <c r="AE30">
+      <c r="AG30">
         <v>31.482252800000001</v>
       </c>
-      <c r="AF30">
+      <c r="AH30">
         <v>474.02079989999999</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:34">
       <c r="A31">
         <v>25.733620899999998</v>
       </c>
       <c r="B31">
+        <v>20.6684108</v>
+      </c>
+      <c r="C31">
         <v>27.645210200000001</v>
       </c>
+      <c r="D31">
+        <v>38.125625900000003</v>
+      </c>
+      <c r="E31">
+        <v>23.462597500000001</v>
+      </c>
+      <c r="F31">
+        <v>23.573006400000001</v>
+      </c>
+      <c r="G31">
+        <v>30.8527779</v>
+      </c>
+      <c r="H31">
+        <v>32.157637800000003</v>
+      </c>
+      <c r="I31">
+        <v>22.756224</v>
+      </c>
+      <c r="J31">
+        <v>19.004764999999999</v>
+      </c>
+      <c r="K31">
+        <v>29.208174100000001</v>
+      </c>
+      <c r="L31">
+        <v>39.069286400000003</v>
+      </c>
+      <c r="M31">
+        <v>22.786758599999999</v>
+      </c>
+      <c r="N31">
+        <v>22.7137241</v>
+      </c>
+      <c r="O31">
+        <v>30.5786318</v>
+      </c>
+      <c r="P31">
+        <v>31.078063499999999</v>
+      </c>
+      <c r="Q31">
+        <v>34.0204758</v>
+      </c>
+      <c r="R31">
+        <v>23.155895900000001</v>
+      </c>
+      <c r="S31">
+        <v>20.389151300000002</v>
+      </c>
+      <c r="T31">
+        <v>28.0438516</v>
+      </c>
+      <c r="U31">
+        <v>31.119556899999999</v>
+      </c>
+      <c r="V31">
+        <v>26.371677699999999</v>
+      </c>
+      <c r="W31">
+        <v>24.159785800000002</v>
+      </c>
+      <c r="X31">
+        <v>34.030932700000001</v>
+      </c>
+      <c r="Y31">
+        <v>32.6445303</v>
+      </c>
+      <c r="Z31">
+        <v>29.860465000000001</v>
+      </c>
+      <c r="AA31">
+        <v>19.535224800000002</v>
+      </c>
+      <c r="AB31">
+        <v>32.472602100000003</v>
+      </c>
+      <c r="AC31">
+        <v>22.810098799999999</v>
+      </c>
+      <c r="AD31">
+        <v>36.796596899999997</v>
+      </c>
+      <c r="AE31">
+        <v>35.7692087</v>
+      </c>
+      <c r="AF31">
+        <v>39.933634499999997</v>
+      </c>
+      <c r="AG31">
+        <v>30.9657199</v>
+      </c>
+      <c r="AH31">
+        <v>390.3884362</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2">
+        <v>1113</v>
+      </c>
+      <c r="B2">
+        <v>305</v>
+      </c>
+      <c r="C2">
+        <v>7781</v>
+      </c>
+      <c r="D2">
+        <v>264</v>
+      </c>
+      <c r="E2">
+        <v>264</v>
+      </c>
+      <c r="F2">
+        <v>538</v>
+      </c>
+      <c r="G2">
+        <v>360</v>
+      </c>
+      <c r="H2">
+        <v>569</v>
+      </c>
+      <c r="I2">
+        <v>383</v>
+      </c>
+      <c r="J2">
+        <v>3161</v>
+      </c>
+      <c r="K2">
+        <v>379</v>
+      </c>
+      <c r="L2">
+        <v>2991</v>
+      </c>
+      <c r="M2">
+        <v>596</v>
+      </c>
+      <c r="N2">
+        <v>524</v>
+      </c>
+      <c r="O2">
+        <v>709</v>
+      </c>
+      <c r="P2">
+        <v>668</v>
+      </c>
+      <c r="Q2">
+        <v>330</v>
+      </c>
+      <c r="R2">
+        <v>673</v>
+      </c>
+      <c r="S2">
+        <v>3162</v>
+      </c>
+      <c r="T2">
+        <v>13251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3">
+        <v>459</v>
+      </c>
+      <c r="B3">
+        <v>304</v>
+      </c>
+      <c r="C3">
+        <v>2900</v>
+      </c>
+      <c r="D3">
+        <v>267</v>
+      </c>
+      <c r="E3">
+        <v>261</v>
+      </c>
+      <c r="F3">
+        <v>539</v>
+      </c>
+      <c r="G3">
+        <v>402</v>
+      </c>
+      <c r="H3">
+        <v>543</v>
+      </c>
+      <c r="I3">
+        <v>357</v>
+      </c>
+      <c r="J3">
+        <v>3065</v>
+      </c>
+      <c r="K3">
+        <v>367</v>
+      </c>
+      <c r="L3">
+        <v>3013</v>
+      </c>
+      <c r="M3">
+        <v>575</v>
+      </c>
+      <c r="N3">
+        <v>542</v>
+      </c>
+      <c r="O3">
+        <v>681</v>
+      </c>
+      <c r="P3">
+        <v>683</v>
+      </c>
+      <c r="Q3">
+        <v>293</v>
+      </c>
+      <c r="R3">
+        <v>675</v>
+      </c>
+      <c r="S3">
+        <v>3041</v>
+      </c>
+      <c r="T3">
+        <v>12817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4">
+        <v>328</v>
+      </c>
+      <c r="B4">
+        <v>304</v>
+      </c>
+      <c r="C4">
+        <v>2965</v>
+      </c>
+      <c r="D4">
+        <v>267</v>
+      </c>
+      <c r="E4">
+        <v>263</v>
+      </c>
+      <c r="F4">
+        <v>545</v>
+      </c>
+      <c r="G4">
+        <v>299</v>
+      </c>
+      <c r="H4">
+        <v>545</v>
+      </c>
+      <c r="I4">
+        <v>346</v>
+      </c>
+      <c r="J4">
+        <v>3079</v>
+      </c>
+      <c r="K4">
+        <v>374</v>
+      </c>
+      <c r="L4">
+        <v>3054</v>
+      </c>
+      <c r="M4">
+        <v>575</v>
+      </c>
+      <c r="N4">
+        <v>525</v>
+      </c>
+      <c r="O4">
+        <v>668</v>
+      </c>
+      <c r="P4">
+        <v>695</v>
+      </c>
+      <c r="Q4">
+        <v>290</v>
+      </c>
+      <c r="R4">
+        <v>679</v>
+      </c>
+      <c r="S4">
+        <v>2991</v>
+      </c>
+      <c r="T4">
+        <v>13380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5">
+        <v>312</v>
+      </c>
+      <c r="B5">
+        <v>316</v>
+      </c>
+      <c r="C5">
+        <v>2929</v>
+      </c>
+      <c r="D5">
+        <v>266</v>
+      </c>
+      <c r="E5">
+        <v>268</v>
+      </c>
+      <c r="F5">
+        <v>544</v>
+      </c>
+      <c r="G5">
+        <v>301</v>
+      </c>
+      <c r="H5">
+        <v>543</v>
+      </c>
+      <c r="I5">
+        <v>356</v>
+      </c>
+      <c r="J5">
+        <v>3062</v>
+      </c>
+      <c r="K5">
+        <v>382</v>
+      </c>
+      <c r="L5">
+        <v>3097</v>
+      </c>
+      <c r="M5">
+        <v>565</v>
+      </c>
+      <c r="N5">
+        <v>528</v>
+      </c>
+      <c r="O5">
+        <v>727</v>
+      </c>
+      <c r="P5">
+        <v>667</v>
+      </c>
+      <c r="Q5">
+        <v>289</v>
+      </c>
+      <c r="R5">
+        <v>671</v>
+      </c>
+      <c r="S5">
+        <v>2989</v>
+      </c>
+      <c r="T5">
+        <v>13367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6">
+        <v>346</v>
+      </c>
+      <c r="B6">
+        <v>309</v>
+      </c>
+      <c r="C6">
+        <v>2861</v>
+      </c>
+      <c r="D6">
+        <v>268</v>
+      </c>
+      <c r="E6">
+        <v>271</v>
+      </c>
+      <c r="F6">
+        <v>542</v>
+      </c>
+      <c r="G6">
+        <v>306</v>
+      </c>
+      <c r="H6">
+        <v>549</v>
+      </c>
+      <c r="I6">
+        <v>351</v>
+      </c>
+      <c r="J6">
+        <v>3070</v>
+      </c>
+      <c r="K6">
+        <v>361</v>
+      </c>
+      <c r="L6">
+        <v>3026</v>
+      </c>
+      <c r="M6">
+        <v>569</v>
+      </c>
+      <c r="N6">
+        <v>520</v>
+      </c>
+      <c r="O6">
+        <v>757</v>
+      </c>
+      <c r="P6">
+        <v>688</v>
+      </c>
+      <c r="Q6">
+        <v>350</v>
+      </c>
+      <c r="R6">
+        <v>745</v>
+      </c>
+      <c r="S6">
+        <v>3009</v>
+      </c>
+      <c r="T6">
+        <v>13150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>312</v>
+      </c>
+      <c r="B7">
+        <v>308</v>
+      </c>
+      <c r="C7">
+        <v>2888</v>
+      </c>
+      <c r="D7">
+        <v>273</v>
+      </c>
+      <c r="E7">
+        <v>262</v>
+      </c>
+      <c r="F7">
+        <v>551</v>
+      </c>
+      <c r="G7">
+        <v>295</v>
+      </c>
+      <c r="H7">
+        <v>552</v>
+      </c>
+      <c r="I7">
+        <v>346</v>
+      </c>
+      <c r="J7">
+        <v>3081</v>
+      </c>
+      <c r="K7">
+        <v>357</v>
+      </c>
+      <c r="L7">
+        <v>3076</v>
+      </c>
+      <c r="M7">
+        <v>577</v>
+      </c>
+      <c r="N7">
+        <v>533</v>
+      </c>
+      <c r="O7">
+        <v>701</v>
+      </c>
+      <c r="P7">
+        <v>670</v>
+      </c>
+      <c r="Q7">
+        <v>292</v>
+      </c>
+      <c r="R7">
+        <v>666</v>
+      </c>
+      <c r="S7">
+        <v>2981</v>
+      </c>
+      <c r="T7">
+        <v>13121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>335</v>
+      </c>
+      <c r="B8">
+        <v>358</v>
+      </c>
+      <c r="C8">
+        <v>2904</v>
+      </c>
+      <c r="D8">
+        <v>261</v>
+      </c>
+      <c r="E8">
+        <v>259</v>
+      </c>
+      <c r="F8">
+        <v>544</v>
+      </c>
+      <c r="G8">
+        <v>292</v>
+      </c>
+      <c r="H8">
+        <v>537</v>
+      </c>
+      <c r="I8">
+        <v>351</v>
+      </c>
+      <c r="J8">
+        <v>3037</v>
+      </c>
+      <c r="K8">
+        <v>347</v>
+      </c>
+      <c r="L8">
+        <v>3026</v>
+      </c>
+      <c r="M8">
+        <v>574</v>
+      </c>
+      <c r="N8">
+        <v>524</v>
+      </c>
+      <c r="O8">
+        <v>686</v>
+      </c>
+      <c r="P8">
+        <v>699</v>
+      </c>
+      <c r="Q8">
+        <v>287</v>
+      </c>
+      <c r="R8">
+        <v>706</v>
+      </c>
+      <c r="S8">
+        <v>2984</v>
+      </c>
+      <c r="T8">
+        <v>13309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>490</v>
+      </c>
+      <c r="B9">
+        <v>301</v>
+      </c>
+      <c r="C9">
+        <v>2860</v>
+      </c>
+      <c r="D9">
+        <v>272</v>
+      </c>
+      <c r="E9">
+        <v>265</v>
+      </c>
+      <c r="F9">
+        <v>549</v>
+      </c>
+      <c r="G9">
+        <v>303</v>
+      </c>
+      <c r="H9">
+        <v>545</v>
+      </c>
+      <c r="I9">
+        <v>368</v>
+      </c>
+      <c r="J9">
+        <v>3098</v>
+      </c>
+      <c r="K9">
+        <v>357</v>
+      </c>
+      <c r="L9">
+        <v>3042</v>
+      </c>
+      <c r="M9">
+        <v>579</v>
+      </c>
+      <c r="N9">
+        <v>518</v>
+      </c>
+      <c r="O9">
+        <v>661</v>
+      </c>
+      <c r="P9">
+        <v>663</v>
+      </c>
+      <c r="Q9">
+        <v>293</v>
+      </c>
+      <c r="R9">
+        <v>677</v>
+      </c>
+      <c r="S9">
+        <v>2974</v>
+      </c>
+      <c r="T9">
+        <v>12938</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>312</v>
+      </c>
+      <c r="B10">
+        <v>305</v>
+      </c>
+      <c r="C10">
+        <v>2868</v>
+      </c>
+      <c r="D10">
+        <v>266</v>
+      </c>
+      <c r="E10">
+        <v>270</v>
+      </c>
+      <c r="F10">
+        <v>534</v>
+      </c>
+      <c r="G10">
+        <v>314</v>
+      </c>
+      <c r="H10">
+        <v>534</v>
+      </c>
+      <c r="I10">
+        <v>346</v>
+      </c>
+      <c r="J10">
+        <v>3146</v>
+      </c>
+      <c r="K10">
+        <v>310</v>
+      </c>
+      <c r="L10">
+        <v>3036</v>
+      </c>
+      <c r="M10">
+        <v>568</v>
+      </c>
+      <c r="N10">
+        <v>523</v>
+      </c>
+      <c r="O10">
+        <v>704</v>
+      </c>
+      <c r="P10">
+        <v>681</v>
+      </c>
+      <c r="Q10">
+        <v>292</v>
+      </c>
+      <c r="R10">
+        <v>679</v>
+      </c>
+      <c r="S10">
+        <v>3280</v>
+      </c>
+      <c r="T10">
+        <v>12852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>302</v>
+      </c>
+      <c r="B11">
+        <v>315</v>
+      </c>
+      <c r="C11">
+        <v>2915</v>
+      </c>
+      <c r="D11">
+        <v>271</v>
+      </c>
+      <c r="E11">
+        <v>266</v>
+      </c>
+      <c r="F11">
+        <v>546</v>
+      </c>
+      <c r="G11">
+        <v>296</v>
+      </c>
+      <c r="H11">
+        <v>546</v>
+      </c>
+      <c r="I11">
+        <v>344</v>
+      </c>
+      <c r="J11">
+        <v>3091</v>
+      </c>
+      <c r="K11">
+        <v>308</v>
+      </c>
+      <c r="L11">
+        <v>3022</v>
+      </c>
+      <c r="M11">
+        <v>563</v>
+      </c>
+      <c r="N11">
+        <v>531</v>
+      </c>
+      <c r="O11">
+        <v>719</v>
+      </c>
+      <c r="P11">
+        <v>755</v>
+      </c>
+      <c r="Q11">
+        <v>291</v>
+      </c>
+      <c r="R11">
+        <v>677</v>
+      </c>
+      <c r="S11">
+        <v>3094</v>
+      </c>
+      <c r="T11">
+        <v>13179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>308</v>
+      </c>
+      <c r="B12">
+        <v>309</v>
+      </c>
+      <c r="C12">
+        <v>2884</v>
+      </c>
+      <c r="D12">
+        <v>266</v>
+      </c>
+      <c r="E12">
+        <v>263</v>
+      </c>
+      <c r="F12">
+        <v>547</v>
+      </c>
+      <c r="G12">
+        <v>301</v>
+      </c>
+      <c r="H12">
+        <v>649</v>
+      </c>
+      <c r="I12">
+        <v>358</v>
+      </c>
+      <c r="J12">
+        <v>3207</v>
+      </c>
+      <c r="K12">
+        <v>323</v>
+      </c>
+      <c r="L12">
+        <v>3014</v>
+      </c>
+      <c r="M12">
+        <v>557</v>
+      </c>
+      <c r="N12">
+        <v>528</v>
+      </c>
+      <c r="O12">
+        <v>673</v>
+      </c>
+      <c r="P12">
+        <v>686</v>
+      </c>
+      <c r="Q12">
+        <v>286</v>
+      </c>
+      <c r="R12">
+        <v>669</v>
+      </c>
+      <c r="S12">
+        <v>3016</v>
+      </c>
+      <c r="T12">
+        <v>13480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>312</v>
+      </c>
+      <c r="B13">
+        <v>304</v>
+      </c>
+      <c r="C13">
+        <v>2889</v>
+      </c>
+      <c r="D13">
+        <v>265</v>
+      </c>
+      <c r="E13">
+        <v>278</v>
+      </c>
+      <c r="F13">
+        <v>562</v>
+      </c>
+      <c r="G13">
+        <v>303</v>
+      </c>
+      <c r="H13">
+        <v>537</v>
+      </c>
+      <c r="I13">
+        <v>351</v>
+      </c>
+      <c r="J13">
+        <v>3083</v>
+      </c>
+      <c r="K13">
+        <v>319</v>
+      </c>
+      <c r="L13">
+        <v>3042</v>
+      </c>
+      <c r="M13">
+        <v>566</v>
+      </c>
+      <c r="N13">
+        <v>524</v>
+      </c>
+      <c r="O13">
+        <v>672</v>
+      </c>
+      <c r="P13">
+        <v>689</v>
+      </c>
+      <c r="Q13">
+        <v>291</v>
+      </c>
+      <c r="R13">
+        <v>678</v>
+      </c>
+      <c r="S13">
+        <v>3448</v>
+      </c>
+      <c r="T13">
+        <v>13341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>307</v>
+      </c>
+      <c r="B14">
+        <v>340</v>
+      </c>
+      <c r="C14">
+        <v>3189</v>
+      </c>
+      <c r="D14">
+        <v>349</v>
+      </c>
+      <c r="E14">
+        <v>338</v>
+      </c>
+      <c r="F14">
+        <v>534</v>
+      </c>
+      <c r="G14">
+        <v>296</v>
+      </c>
+      <c r="H14">
+        <v>545</v>
+      </c>
+      <c r="I14">
+        <v>353</v>
+      </c>
+      <c r="J14">
+        <v>3077</v>
+      </c>
+      <c r="K14">
+        <v>309</v>
+      </c>
+      <c r="L14">
+        <v>3073</v>
+      </c>
+      <c r="M14">
+        <v>574</v>
+      </c>
+      <c r="N14">
+        <v>524</v>
+      </c>
+      <c r="O14">
+        <v>673</v>
+      </c>
+      <c r="P14">
+        <v>668</v>
+      </c>
+      <c r="Q14">
+        <v>296</v>
+      </c>
+      <c r="R14">
+        <v>672</v>
+      </c>
+      <c r="S14">
+        <v>3075</v>
+      </c>
+      <c r="T14">
+        <v>13090</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>310</v>
+      </c>
+      <c r="B15">
+        <v>307</v>
+      </c>
+      <c r="C15">
+        <v>2942</v>
+      </c>
+      <c r="D15">
+        <v>268</v>
+      </c>
+      <c r="E15">
+        <v>264</v>
+      </c>
+      <c r="F15">
+        <v>555</v>
+      </c>
+      <c r="G15">
+        <v>298</v>
+      </c>
+      <c r="H15">
+        <v>545</v>
+      </c>
+      <c r="I15">
+        <v>356</v>
+      </c>
+      <c r="J15">
+        <v>3097</v>
+      </c>
+      <c r="K15">
+        <v>305</v>
+      </c>
+      <c r="L15">
+        <v>3021</v>
+      </c>
+      <c r="M15">
+        <v>583</v>
+      </c>
+      <c r="N15">
+        <v>535</v>
+      </c>
+      <c r="O15">
+        <v>662</v>
+      </c>
+      <c r="P15">
+        <v>682</v>
+      </c>
+      <c r="Q15">
+        <v>286</v>
+      </c>
+      <c r="R15">
+        <v>698</v>
+      </c>
+      <c r="S15">
+        <v>3003</v>
+      </c>
+      <c r="T15">
+        <v>13497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>309</v>
+      </c>
+      <c r="B16">
+        <v>302</v>
+      </c>
+      <c r="C16">
+        <v>2884</v>
+      </c>
+      <c r="D16">
+        <v>269</v>
+      </c>
+      <c r="E16">
+        <v>272</v>
+      </c>
+      <c r="F16">
+        <v>546</v>
+      </c>
+      <c r="G16">
+        <v>321</v>
+      </c>
+      <c r="H16">
+        <v>542</v>
+      </c>
+      <c r="I16">
+        <v>355</v>
+      </c>
+      <c r="J16">
+        <v>3282</v>
+      </c>
+      <c r="K16">
+        <v>314</v>
+      </c>
+      <c r="L16">
+        <v>3063</v>
+      </c>
+      <c r="M16">
+        <v>620</v>
+      </c>
+      <c r="N16">
+        <v>523</v>
+      </c>
+      <c r="O16">
+        <v>698</v>
+      </c>
+      <c r="P16">
+        <v>681</v>
+      </c>
+      <c r="Q16">
+        <v>290</v>
+      </c>
+      <c r="R16">
+        <v>671</v>
+      </c>
+      <c r="S16">
+        <v>2994</v>
+      </c>
+      <c r="T16">
+        <v>13462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>308</v>
+      </c>
+      <c r="B17">
+        <v>302</v>
+      </c>
+      <c r="C17">
+        <v>2971</v>
+      </c>
+      <c r="D17">
+        <v>274</v>
+      </c>
+      <c r="E17">
+        <v>264</v>
+      </c>
+      <c r="F17">
+        <v>586</v>
+      </c>
+      <c r="G17">
+        <v>298</v>
+      </c>
+      <c r="H17">
+        <v>538</v>
+      </c>
+      <c r="I17">
+        <v>361</v>
+      </c>
+      <c r="J17">
+        <v>3469</v>
+      </c>
+      <c r="K17">
+        <v>302</v>
+      </c>
+      <c r="L17">
+        <v>3022</v>
+      </c>
+      <c r="M17">
+        <v>567</v>
+      </c>
+      <c r="N17">
+        <v>511</v>
+      </c>
+      <c r="O17">
+        <v>683</v>
+      </c>
+      <c r="P17">
+        <v>680</v>
+      </c>
+      <c r="Q17">
+        <v>288</v>
+      </c>
+      <c r="R17">
+        <v>679</v>
+      </c>
+      <c r="S17">
+        <v>3067</v>
+      </c>
+      <c r="T17">
+        <v>13529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>302</v>
+      </c>
+      <c r="B18">
+        <v>306</v>
+      </c>
+      <c r="C18">
+        <v>2912</v>
+      </c>
+      <c r="D18">
+        <v>265</v>
+      </c>
+      <c r="E18">
+        <v>269</v>
+      </c>
+      <c r="F18">
+        <v>542</v>
+      </c>
+      <c r="G18">
+        <v>301</v>
+      </c>
+      <c r="H18">
+        <v>548</v>
+      </c>
+      <c r="I18">
+        <v>347</v>
+      </c>
+      <c r="J18">
+        <v>3136</v>
+      </c>
+      <c r="K18">
+        <v>306</v>
+      </c>
+      <c r="L18">
+        <v>3012</v>
+      </c>
+      <c r="M18">
+        <v>575</v>
+      </c>
+      <c r="N18">
+        <v>516</v>
+      </c>
+      <c r="O18">
+        <v>671</v>
+      </c>
+      <c r="P18">
+        <v>679</v>
+      </c>
+      <c r="Q18">
+        <v>289</v>
+      </c>
+      <c r="R18">
+        <v>681</v>
+      </c>
+      <c r="S18">
+        <v>3005</v>
+      </c>
+      <c r="T18">
+        <v>13355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <v>305</v>
+      </c>
+      <c r="B19">
+        <v>312</v>
+      </c>
+      <c r="C19">
+        <v>2920</v>
+      </c>
+      <c r="D19">
+        <v>268</v>
+      </c>
+      <c r="E19">
+        <v>264</v>
+      </c>
+      <c r="F19">
+        <v>539</v>
+      </c>
+      <c r="G19">
+        <v>293</v>
+      </c>
+      <c r="H19">
+        <v>546</v>
+      </c>
+      <c r="I19">
+        <v>351</v>
+      </c>
+      <c r="J19">
+        <v>3054</v>
+      </c>
+      <c r="K19">
+        <v>314</v>
+      </c>
+      <c r="L19">
+        <v>2980</v>
+      </c>
+      <c r="M19">
+        <v>553</v>
+      </c>
+      <c r="N19">
+        <v>526</v>
+      </c>
+      <c r="O19">
+        <v>676</v>
+      </c>
+      <c r="P19">
+        <v>680</v>
+      </c>
+      <c r="Q19">
+        <v>292</v>
+      </c>
+      <c r="R19">
+        <v>668</v>
+      </c>
+      <c r="S19">
+        <v>2998</v>
+      </c>
+      <c r="T19">
+        <v>13288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <v>295</v>
+      </c>
+      <c r="B20">
+        <v>308</v>
+      </c>
+      <c r="C20">
+        <v>2865</v>
+      </c>
+      <c r="D20">
+        <v>267</v>
+      </c>
+      <c r="E20">
+        <v>276</v>
+      </c>
+      <c r="F20">
+        <v>543</v>
+      </c>
+      <c r="G20">
+        <v>307</v>
+      </c>
+      <c r="H20">
+        <v>541</v>
+      </c>
+      <c r="I20">
+        <v>358</v>
+      </c>
+      <c r="J20">
+        <v>3108</v>
+      </c>
+      <c r="K20">
+        <v>305</v>
+      </c>
+      <c r="L20">
+        <v>3017</v>
+      </c>
+      <c r="M20">
+        <v>560</v>
+      </c>
+      <c r="N20">
+        <v>516</v>
+      </c>
+      <c r="O20">
+        <v>665</v>
+      </c>
+      <c r="P20">
+        <v>681</v>
+      </c>
+      <c r="Q20">
+        <v>320</v>
+      </c>
+      <c r="R20">
+        <v>676</v>
+      </c>
+      <c r="S20">
+        <v>3004</v>
+      </c>
+      <c r="T20">
+        <v>13372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21">
+        <v>303</v>
+      </c>
+      <c r="B21">
+        <v>315</v>
+      </c>
+      <c r="C21">
+        <v>2844</v>
+      </c>
+      <c r="D21">
+        <v>276</v>
+      </c>
+      <c r="E21">
+        <v>259</v>
+      </c>
+      <c r="F21">
+        <v>550</v>
+      </c>
+      <c r="G21">
+        <v>293</v>
+      </c>
+      <c r="H21">
+        <v>536</v>
+      </c>
+      <c r="I21">
+        <v>352</v>
+      </c>
+      <c r="J21">
+        <v>3124</v>
+      </c>
+      <c r="K21">
+        <v>301</v>
+      </c>
+      <c r="L21">
+        <v>3123</v>
+      </c>
+      <c r="M21">
+        <v>563</v>
+      </c>
+      <c r="N21">
+        <v>524</v>
+      </c>
+      <c r="O21">
+        <v>683</v>
+      </c>
+      <c r="P21">
+        <v>654</v>
+      </c>
+      <c r="Q21">
+        <v>312</v>
+      </c>
+      <c r="R21">
+        <v>680</v>
+      </c>
+      <c r="S21">
+        <v>3066</v>
+      </c>
+      <c r="T21">
+        <v>13143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22">
+        <v>309</v>
+      </c>
+      <c r="B22">
+        <v>297</v>
+      </c>
+      <c r="C22">
+        <v>2857</v>
+      </c>
+      <c r="D22">
+        <v>266</v>
+      </c>
+      <c r="E22">
+        <v>260</v>
+      </c>
+      <c r="F22">
+        <v>543</v>
+      </c>
+      <c r="G22">
+        <v>295</v>
+      </c>
+      <c r="H22">
+        <v>552</v>
+      </c>
+      <c r="I22">
+        <v>347</v>
+      </c>
+      <c r="J22">
+        <v>3070</v>
+      </c>
+      <c r="K22">
+        <v>310</v>
+      </c>
+      <c r="L22">
+        <v>3027</v>
+      </c>
+      <c r="M22">
+        <v>566</v>
+      </c>
+      <c r="N22">
+        <v>517</v>
+      </c>
+      <c r="O22">
+        <v>768</v>
+      </c>
+      <c r="P22">
+        <v>676</v>
+      </c>
+      <c r="Q22">
+        <v>295</v>
+      </c>
+      <c r="R22">
+        <v>666</v>
+      </c>
+      <c r="S22">
+        <v>3018</v>
+      </c>
+      <c r="T22">
+        <v>13496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23">
+        <v>307</v>
+      </c>
+      <c r="B23">
+        <v>318</v>
+      </c>
+      <c r="C23">
+        <v>2826</v>
+      </c>
+      <c r="D23">
+        <v>269</v>
+      </c>
+      <c r="E23">
+        <v>265</v>
+      </c>
+      <c r="F23">
+        <v>554</v>
+      </c>
+      <c r="G23">
+        <v>340</v>
+      </c>
+      <c r="H23">
+        <v>545</v>
+      </c>
+      <c r="I23">
+        <v>351</v>
+      </c>
+      <c r="J23">
+        <v>3179</v>
+      </c>
+      <c r="K23">
+        <v>308</v>
+      </c>
+      <c r="L23">
+        <v>3031</v>
+      </c>
+      <c r="M23">
+        <v>550</v>
+      </c>
+      <c r="N23">
+        <v>519</v>
+      </c>
+      <c r="O23">
+        <v>680</v>
+      </c>
+      <c r="P23">
+        <v>675</v>
+      </c>
+      <c r="Q23">
+        <v>294</v>
+      </c>
+      <c r="R23">
+        <v>689</v>
+      </c>
+      <c r="S23">
+        <v>3190</v>
+      </c>
+      <c r="T23">
+        <v>13430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24">
+        <v>309</v>
+      </c>
+      <c r="B24">
+        <v>308</v>
+      </c>
+      <c r="C24">
+        <v>2903</v>
+      </c>
+      <c r="D24">
+        <v>263</v>
+      </c>
+      <c r="E24">
+        <v>268</v>
+      </c>
+      <c r="F24">
+        <v>547</v>
+      </c>
+      <c r="G24">
+        <v>296</v>
+      </c>
+      <c r="H24">
+        <v>549</v>
+      </c>
+      <c r="I24">
+        <v>346</v>
+      </c>
+      <c r="J24">
+        <v>3172</v>
+      </c>
+      <c r="K24">
+        <v>302</v>
+      </c>
+      <c r="L24">
+        <v>3092</v>
+      </c>
+      <c r="M24">
+        <v>662</v>
+      </c>
+      <c r="N24">
+        <v>528</v>
+      </c>
+      <c r="O24">
+        <v>676</v>
+      </c>
+      <c r="P24">
+        <v>677</v>
+      </c>
+      <c r="Q24">
+        <v>289</v>
+      </c>
+      <c r="R24">
+        <v>680</v>
+      </c>
+      <c r="S24">
+        <v>3000</v>
+      </c>
+      <c r="T24">
+        <v>12908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25">
+        <v>312</v>
+      </c>
+      <c r="B25">
+        <v>297</v>
+      </c>
+      <c r="C25">
+        <v>2843</v>
+      </c>
+      <c r="D25">
+        <v>259</v>
+      </c>
+      <c r="E25">
+        <v>266</v>
+      </c>
+      <c r="F25">
+        <v>548</v>
+      </c>
+      <c r="G25">
+        <v>296</v>
+      </c>
+      <c r="H25">
+        <v>538</v>
+      </c>
+      <c r="I25">
+        <v>361</v>
+      </c>
+      <c r="J25">
+        <v>3054</v>
+      </c>
+      <c r="K25">
+        <v>315</v>
+      </c>
+      <c r="L25">
+        <v>3042</v>
+      </c>
+      <c r="M25">
+        <v>558</v>
+      </c>
+      <c r="N25">
+        <v>529</v>
+      </c>
+      <c r="O25">
+        <v>666</v>
+      </c>
+      <c r="P25">
+        <v>709</v>
+      </c>
+      <c r="Q25">
+        <v>289</v>
+      </c>
+      <c r="R25">
+        <v>687</v>
+      </c>
+      <c r="S25">
+        <v>3003</v>
+      </c>
+      <c r="T25">
+        <v>12960</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26">
+        <v>304</v>
+      </c>
+      <c r="B26">
+        <v>309</v>
+      </c>
+      <c r="C26">
+        <v>2868</v>
+      </c>
+      <c r="D26">
+        <v>263</v>
+      </c>
+      <c r="E26">
+        <v>266</v>
+      </c>
+      <c r="F26">
+        <v>544</v>
+      </c>
+      <c r="G26">
+        <v>295</v>
+      </c>
+      <c r="H26">
+        <v>602</v>
+      </c>
+      <c r="I26">
+        <v>372</v>
+      </c>
+      <c r="J26">
+        <v>3075</v>
+      </c>
+      <c r="K26">
+        <v>308</v>
+      </c>
+      <c r="L26">
+        <v>3036</v>
+      </c>
+      <c r="M26">
+        <v>585</v>
+      </c>
+      <c r="N26">
+        <v>540</v>
+      </c>
+      <c r="O26">
+        <v>666</v>
+      </c>
+      <c r="P26">
+        <v>717</v>
+      </c>
+      <c r="Q26">
+        <v>290</v>
+      </c>
+      <c r="R26">
+        <v>706</v>
+      </c>
+      <c r="S26">
+        <v>3029</v>
+      </c>
+      <c r="T26">
+        <v>12897</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27">
+        <v>308</v>
+      </c>
+      <c r="B27">
+        <v>309</v>
+      </c>
+      <c r="C27">
+        <v>2851</v>
+      </c>
+      <c r="D27">
+        <v>264</v>
+      </c>
+      <c r="E27">
+        <v>263</v>
+      </c>
+      <c r="F27">
+        <v>541</v>
+      </c>
+      <c r="G27">
+        <v>300</v>
+      </c>
+      <c r="H27">
+        <v>542</v>
+      </c>
+      <c r="I27">
+        <v>347</v>
+      </c>
+      <c r="J27">
+        <v>3123</v>
+      </c>
+      <c r="K27">
+        <v>307</v>
+      </c>
+      <c r="L27">
+        <v>3115</v>
+      </c>
+      <c r="M27">
+        <v>562</v>
+      </c>
+      <c r="N27">
+        <v>525</v>
+      </c>
+      <c r="O27">
+        <v>679</v>
+      </c>
+      <c r="P27">
+        <v>666</v>
+      </c>
+      <c r="Q27">
+        <v>290</v>
+      </c>
+      <c r="R27">
+        <v>704</v>
+      </c>
+      <c r="S27">
+        <v>3013</v>
+      </c>
+      <c r="T27">
+        <v>12944</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28">
+        <v>321</v>
+      </c>
+      <c r="B28">
+        <v>309</v>
+      </c>
+      <c r="C28">
+        <v>2833</v>
+      </c>
+      <c r="D28">
+        <v>270</v>
+      </c>
+      <c r="E28">
+        <v>267</v>
+      </c>
+      <c r="F28">
+        <v>537</v>
+      </c>
+      <c r="G28">
+        <v>291</v>
+      </c>
+      <c r="H28">
+        <v>544</v>
+      </c>
+      <c r="I28">
+        <v>369</v>
+      </c>
+      <c r="J28">
+        <v>3315</v>
+      </c>
+      <c r="K28">
+        <v>304</v>
+      </c>
+      <c r="L28">
+        <v>3013</v>
+      </c>
+      <c r="M28">
+        <v>558</v>
+      </c>
+      <c r="N28">
+        <v>523</v>
+      </c>
+      <c r="O28">
+        <v>668</v>
+      </c>
+      <c r="P28">
+        <v>690</v>
+      </c>
+      <c r="Q28">
+        <v>283</v>
+      </c>
+      <c r="R28">
+        <v>739</v>
+      </c>
+      <c r="S28">
+        <v>3029</v>
+      </c>
+      <c r="T28">
+        <v>12943</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29">
+        <v>296</v>
+      </c>
+      <c r="B29">
+        <v>319</v>
+      </c>
+      <c r="C29">
+        <v>3084</v>
+      </c>
+      <c r="D29">
+        <v>295</v>
+      </c>
+      <c r="E29">
+        <v>261</v>
+      </c>
+      <c r="F29">
+        <v>545</v>
+      </c>
+      <c r="G29">
+        <v>300</v>
+      </c>
+      <c r="H29">
+        <v>558</v>
+      </c>
+      <c r="I29">
+        <v>354</v>
+      </c>
+      <c r="J29">
+        <v>3040</v>
+      </c>
+      <c r="K29">
+        <v>309</v>
+      </c>
+      <c r="L29">
+        <v>3009</v>
+      </c>
+      <c r="M29">
+        <v>569</v>
+      </c>
+      <c r="N29">
+        <v>538</v>
+      </c>
+      <c r="O29">
+        <v>667</v>
+      </c>
+      <c r="P29">
+        <v>681</v>
+      </c>
+      <c r="Q29">
+        <v>286</v>
+      </c>
+      <c r="R29">
+        <v>672</v>
+      </c>
+      <c r="S29">
+        <v>3020</v>
+      </c>
+      <c r="T29">
+        <v>13603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30">
+        <v>312</v>
+      </c>
+      <c r="B30">
+        <v>315</v>
+      </c>
+      <c r="C30">
+        <v>2847</v>
+      </c>
+      <c r="D30">
+        <v>272</v>
+      </c>
+      <c r="E30">
+        <v>261</v>
+      </c>
+      <c r="F30">
+        <v>551</v>
+      </c>
+      <c r="G30">
+        <v>292</v>
+      </c>
+      <c r="H30">
+        <v>541</v>
+      </c>
+      <c r="I30">
+        <v>348</v>
+      </c>
+      <c r="J30">
+        <v>3319</v>
+      </c>
+      <c r="K30">
+        <v>305</v>
+      </c>
+      <c r="L30">
+        <v>3042</v>
+      </c>
+      <c r="M30">
+        <v>565</v>
+      </c>
+      <c r="N30">
+        <v>529</v>
+      </c>
+      <c r="O30">
+        <v>685</v>
+      </c>
+      <c r="P30">
+        <v>673</v>
+      </c>
+      <c r="Q30">
+        <v>291</v>
+      </c>
+      <c r="R30">
+        <v>697</v>
+      </c>
+      <c r="S30">
+        <v>2990</v>
+      </c>
+      <c r="T30">
+        <v>13786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31">
+        <v>309</v>
+      </c>
+      <c r="B31">
+        <v>335</v>
+      </c>
       <c r="C31">
-        <v>38.125625900000003</v>
+        <v>2883</v>
       </c>
       <c r="D31">
-        <v>23.462597500000001</v>
+        <v>271</v>
       </c>
       <c r="E31">
-        <v>23.573006400000001</v>
+        <v>265</v>
       </c>
       <c r="F31">
-        <v>30.8527779</v>
+        <v>599</v>
       </c>
       <c r="G31">
-        <v>32.157637800000003</v>
+        <v>291</v>
       </c>
       <c r="H31">
-        <v>22.756224</v>
+        <v>545</v>
       </c>
       <c r="I31">
-        <v>29.208174100000001</v>
+        <v>348</v>
       </c>
       <c r="J31">
-        <v>39.069286400000003</v>
+        <v>3154</v>
       </c>
       <c r="K31">
-        <v>22.786758599999999</v>
+        <v>312</v>
       </c>
       <c r="L31">
-        <v>22.7137241</v>
+        <v>3041</v>
       </c>
       <c r="M31">
-        <v>30.5786318</v>
+        <v>567</v>
       </c>
       <c r="N31">
-        <v>31.078063499999999</v>
+        <v>544</v>
       </c>
       <c r="O31">
-        <v>34.0204758</v>
+        <v>665</v>
       </c>
       <c r="P31">
-        <v>23.155895900000001</v>
+        <v>699</v>
       </c>
       <c r="Q31">
-        <v>20.389151300000002</v>
+        <v>286</v>
       </c>
       <c r="R31">
-        <v>28.0438516</v>
+        <v>682</v>
       </c>
       <c r="S31">
-        <v>31.119556899999999</v>
+        <v>3114</v>
       </c>
       <c r="T31">
-        <v>26.371677699999999</v>
-      </c>
-      <c r="U31">
-        <v>24.159785800000002</v>
-      </c>
-      <c r="V31">
-        <v>34.030932700000001</v>
-      </c>
-      <c r="W31">
-        <v>32.6445303</v>
-      </c>
-      <c r="X31">
-        <v>29.860465000000001</v>
-      </c>
-      <c r="Y31">
-        <v>19.535224800000002</v>
-      </c>
-      <c r="AB31">
-        <v>36.796596899999997</v>
-      </c>
-      <c r="AC31">
-        <v>20.982624900000001</v>
-      </c>
-      <c r="AD31">
-        <v>39.933634499999997</v>
-      </c>
-      <c r="AE31">
-        <v>30.9657199</v>
-      </c>
-      <c r="AF31">
-        <v>390.3884362</v>
+        <v>13543</v>
       </c>
     </row>
   </sheetData>
